--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:09:52+00:00</t>
+    <t>2024-09-02T14:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:04:41+00:00</t>
+    <t>2025-02-17T14:41:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-17T14:41:06+00:00</t>
+    <t>2025-03-06T12:26:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T12:26:33+00:00</t>
+    <t>2025-04-23T06:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1819,17 +1819,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.2109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.1875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.1875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1838,28 +1838,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.78125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="161.671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.48828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="35.390625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.9453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="138.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.34375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.1015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-23T06:28:42+00:00</t>
+    <t>2025-04-29T12:22:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2442" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T12:22:27+00:00</t>
+    <t>2025-08-08T06:54:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1368,10 +1368,7 @@
     <t>This field identifies the security labels for a specific instance of an object, such as a patient, to detect/track privacy and security issues.</t>
   </si>
   <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://ehealth.sundhed.dk/vs/audit-restriction-levels</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -8307,13 +8304,11 @@
         <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y54" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>77</v>
@@ -8349,10 +8344,10 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>422</v>
@@ -8366,10 +8361,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8395,16 +8390,16 @@
         <v>203</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8453,7 +8448,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8462,7 +8457,7 @@
         <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>101</v>
@@ -8471,16 +8466,16 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>77</v>
@@ -8488,10 +8483,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8517,14 +8512,14 @@
         <v>203</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8573,7 +8568,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8591,10 +8586,10 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>422</v>
@@ -8608,10 +8603,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8634,19 +8629,19 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8695,7 +8690,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8704,7 +8699,7 @@
         <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -8713,10 +8708,10 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>422</v>
@@ -8730,10 +8725,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8759,14 +8754,14 @@
         <v>223</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8815,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8833,10 +8828,10 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>422</v>
@@ -8850,10 +8845,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8968,10 +8963,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9088,10 +9083,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9210,10 +9205,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9239,10 +9234,10 @@
         <v>203</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9293,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>89</v>
@@ -9314,7 +9309,7 @@
         <v>381</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>422</v>
@@ -9328,10 +9323,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9354,19 +9349,19 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9415,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>89</v>
@@ -9433,10 +9428,10 @@
         <v>77</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>422</v>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T11:48:43+00:00</t>
+    <t>2025-08-12T13:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/StructureDefinition-ehealth-auditevent.xlsx
+++ b/fhir/StructureDefinition-ehealth-auditevent.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T13:00:26+00:00</t>
+    <t>2025-10-23T10:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -367,7 +367,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -490,7 +490,7 @@
     <t>Type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -523,7 +523,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t>EventTypeCode</t>
@@ -794,7 +794,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -833,7 +833,7 @@
     <t>What security role enabled the agent to participate in the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.role</t>
@@ -849,7 +849,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1011,7 +1011,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1191,7 +1191,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1247,7 +1247,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1311,7 +1311,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1341,7 +1341,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1826,7 +1826,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.98828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1841,7 +1841,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="65.12109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.74609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
